--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C005A5FE-1C06-4528-856E-35DDCBD34D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA200F-8BDD-439E-A311-36BD7709F5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F8CE70-DA74-43C6-AD86-E840384DBF08}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionTest" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="44">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +134,80 @@
   </si>
   <si>
     <t>충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WALK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLORCHANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLORAPPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> O : 온전한 작동
+ △ : 가끔씩 버그 터짐. 수정중
+ ▲ : 미구현 혹은 커다란 버그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +258,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +296,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -387,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,157 +529,283 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D873547-5137-4124-BC6C-F01E584EAFF6}">
-  <dimension ref="B1:R14"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,410 +1133,443 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="7.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="38" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+    <row r="4" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="I4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56" t="s">
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+    </row>
+    <row r="5" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="52" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-    </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
+      <c r="J5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="85"/>
+      <c r="P5" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+    </row>
+    <row r="6" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-    </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="56" t="s">
+      <c r="I6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="88"/>
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
+    </row>
+    <row r="7" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="44"/>
-    </row>
-    <row r="8" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="8" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="46"/>
-    </row>
-    <row r="9" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="56" t="s">
+      <c r="I8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="41"/>
+    </row>
+    <row r="9" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="68"/>
+      <c r="H9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="46"/>
-    </row>
-    <row r="10" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="41"/>
+    </row>
+    <row r="10" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="69"/>
+      <c r="H10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="46"/>
-    </row>
-    <row r="11" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="41"/>
+    </row>
+    <row r="11" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="G11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="46"/>
-    </row>
-    <row r="12" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="I11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="41"/>
+    </row>
+    <row r="12" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="68"/>
+      <c r="H12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="46"/>
-    </row>
-    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="36"/>
-      <c r="G13" s="8" t="s">
+      <c r="J12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="41"/>
+    </row>
+    <row r="13" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="68"/>
+      <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="46"/>
-    </row>
-    <row r="14" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="37"/>
-      <c r="G14" s="8" t="s">
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="41"/>
+    </row>
+    <row r="14" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="69"/>
+      <c r="H14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-    </row>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="K7:R14"/>
+  <mergeCells count="16">
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L7:S14"/>
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="L4:N6"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="R4:S6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,16 +1577,514 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0C2D74-080F-4A22-B083-6CB75D19C89C}">
+  <dimension ref="B1:U13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="100"/>
+    </row>
+    <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="66"/>
+      <c r="P4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="58"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="74"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="74"/>
+      <c r="C7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="89"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="75"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="69"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="S2:S13"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="L7:Q12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="N4:O6"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -1468,6 +2230,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1475,14 +2246,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1496,6 +2259,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA200F-8BDD-439E-A311-36BD7709F5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F8CE70-DA74-43C6-AD86-E840384DBF08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionTest" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="72">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,13 +207,125 @@
     <t xml:space="preserve"> O : 온전한 작동
  △ : 가끔씩 버그 터짐. 수정중
  ▲ : 미구현 혹은 커다란 버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pobject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iobject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡기가능추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimmick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pobject처럼 밀려나야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일/다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘주는방향조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙 큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 판자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +419,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -492,217 +621,112 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,41 +734,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +754,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,34 +928,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,68 +1295,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D873547-5137-4124-BC6C-F01E584EAFF6}">
-  <dimension ref="B1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="7.625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="13.125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="E2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
-    </row>
-    <row r="3" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="71" t="s">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53"/>
+      <c r="W2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="104"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="E3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1192,384 +1401,703 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="7" t="s">
+      <c r="T3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="104"/>
+      <c r="C4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="Z4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="104"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="X5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="104"/>
+      <c r="C6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="D6" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="65"/>
-      <c r="S4" s="66"/>
-    </row>
-    <row r="5" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="51" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="118"/>
+      <c r="P6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="105"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="42"/>
+      <c r="P7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-    </row>
-    <row r="6" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="3" t="s">
+      <c r="E8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="119"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="56"/>
+    </row>
+    <row r="9" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="104"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63"/>
-    </row>
-    <row r="7" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52"/>
-      <c r="C7" s="51" t="s">
+      <c r="E9" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="58"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="57"/>
+    </row>
+    <row r="10" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="104"/>
+      <c r="C10" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="3" t="s">
+      <c r="E10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="57"/>
+    </row>
+    <row r="11" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="104"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="41"/>
-    </row>
-    <row r="9" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="51" t="s">
+      <c r="E11" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="57"/>
+    </row>
+    <row r="12" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="104"/>
+      <c r="C12" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="H12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="57"/>
+    </row>
+    <row r="13" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="105"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="57"/>
+    </row>
+    <row r="14" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="41"/>
-    </row>
-    <row r="10" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="4" t="s">
+      <c r="E14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="57"/>
+    </row>
+    <row r="15" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="107"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="41"/>
-    </row>
-    <row r="11" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="4" t="s">
+      <c r="E15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="57"/>
+    </row>
+    <row r="16" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="107"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="41"/>
-    </row>
-    <row r="12" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="57"/>
+    </row>
+    <row r="17" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="107"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="60"/>
+    </row>
+    <row r="18" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="107"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="108"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="41"/>
-    </row>
-    <row r="13" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="68"/>
-      <c r="H13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="69"/>
-      <c r="H14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-    </row>
-    <row r="15" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="20" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
+    </row>
+    <row r="21" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="82"/>
+      <c r="C21" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="82"/>
+      <c r="C22" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="82"/>
+      <c r="C23" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="82"/>
+      <c r="C24" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="82"/>
+      <c r="C25" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="82"/>
+      <c r="C26" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="82"/>
+      <c r="C27" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="82"/>
+      <c r="C28" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="E28" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="82"/>
+      <c r="C29" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="75"/>
+      <c r="E29" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="75"/>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="83"/>
+      <c r="C31" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
+  <mergeCells count="32">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L8:U17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G8:G11"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L7:S14"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="R4:S6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,387 +2106,387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0C2D74-080F-4A22-B083-6CB75D19C89C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U13"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="36"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="96" t="s">
+      <c r="T2" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="100"/>
+      <c r="U2" s="94"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="25" t="s">
+      <c r="S3" s="82"/>
+      <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="104" t="s">
+      <c r="U3" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="64" t="s">
+      <c r="I4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" s="80"/>
+      <c r="P4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="25" t="s">
+      <c r="S4" s="82"/>
+      <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="104" t="s">
+      <c r="U4" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="17" t="s">
+      <c r="I5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="82"/>
+      <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="74"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="19" t="s">
+      <c r="I6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="76"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="25" t="s">
+      <c r="S6" s="82"/>
+      <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="102" t="s">
+      <c r="U6" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="74"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="33" t="s">
+      <c r="I7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="91"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="98"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="82"/>
+      <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="103" t="s">
+      <c r="U7" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="75"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="91"/>
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="98"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="25" t="s">
+      <c r="S8" s="82"/>
+      <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="91"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="98"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="25" t="s">
+      <c r="S9" s="82"/>
+      <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="50"/>
+      <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="91"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="98"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="25" t="s">
+      <c r="S10" s="82"/>
+      <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="102" t="s">
+      <c r="U10" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1968,33 +2496,33 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="91"/>
+      <c r="I11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="98"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="25" t="s">
+      <c r="S11" s="82"/>
+      <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="103" t="s">
+      <c r="U11" s="46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2004,31 +2532,31 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
+      <c r="J12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="25" t="s">
+      <c r="S12" s="82"/>
+      <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2050,24 +2578,16 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="28" t="s">
+      <c r="S13" s="83"/>
+      <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="S2:S13"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -2078,6 +2598,14 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:S13"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,18 +2759,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2264,14 +2792,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2285,4 +2805,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,118 @@
   </si>
   <si>
     <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pobject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iobject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡기가능추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimmick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pobject처럼 밀려나야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일/다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘주는방향조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러 체인저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지는 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙 큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 판자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,63 +322,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pobject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iobject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동막기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동막기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡기가능추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimmick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pobject처럼 밀려나야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나머지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타일/다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘주는방향조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
+    <t xml:space="preserve"> O : 온전한 작동
+ △ : 가끔씩 버그 터짐. 수정중
+ ▲ : 미구현 혹은 커다란 버그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,47 +336,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컬러 체인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서지는 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬러 체인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서지는 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬러 체인저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서지는 벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무빙 큐브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 판자</t>
+    <t>오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +734,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,6 +764,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,27 +812,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,17 +977,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC31"/>
+  <dimension ref="B1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1312,764 +1343,837 @@
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="15" width="7.625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="13.125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="9.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="9" max="17" width="7.625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="7.625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="13.125" style="1" customWidth="1"/>
+    <col min="24" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="9.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+    <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="70" t="s">
+      <c r="E2" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="51" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="W2" s="1" t="s">
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="36" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="99"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="E3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="104"/>
-      <c r="C4" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="99"/>
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
-      <c r="Z4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="104"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="110" t="s">
+      <c r="E4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="113"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+      <c r="AB4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="99"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="122"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
+      <c r="Z5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="99"/>
+      <c r="C6" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="106" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="X5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" s="109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="104"/>
-      <c r="C6" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="118"/>
-      <c r="P6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="29"/>
-    </row>
-    <row r="7" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="105"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="112" t="s">
-        <v>56</v>
+      <c r="I6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="100"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="107" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-    </row>
-    <row r="8" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="103" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+    </row>
+    <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-    </row>
-    <row r="9" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="104"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="30" t="s">
+      <c r="I8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="118"/>
+    </row>
+    <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="99"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="57"/>
-    </row>
-    <row r="10" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104"/>
-      <c r="C10" s="62" t="s">
+      <c r="I9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="118"/>
+    </row>
+    <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="99"/>
+      <c r="C10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="21" t="s">
+      <c r="E10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="115"/>
+      <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="57"/>
-    </row>
-    <row r="11" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="104"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="30" t="s">
+      <c r="I10" s="116"/>
+      <c r="J10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="118"/>
+    </row>
+    <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="99"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="32" t="s">
+      <c r="E11" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="115"/>
+      <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="57"/>
-    </row>
-    <row r="12" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="104"/>
-      <c r="C12" s="67" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="118"/>
+    </row>
+    <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="99"/>
+      <c r="C12" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="115"/>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="118"/>
+    </row>
+    <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="100"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="114"/>
+      <c r="H13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="118"/>
+    </row>
+    <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="57"/>
-    </row>
-    <row r="13" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="57"/>
-    </row>
-    <row r="14" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="57"/>
-    </row>
-    <row r="15" spans="2:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="107"/>
-      <c r="C15" s="63"/>
+      <c r="E14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="117"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="118"/>
+    </row>
+    <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="102"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="49"/>
+      <c r="E15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="51"/>
       <c r="H15" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="57"/>
-    </row>
-    <row r="16" spans="2:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="117"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="118"/>
+    </row>
+    <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="102"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="57"/>
-    </row>
-    <row r="17" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="107"/>
-      <c r="C17" s="63"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="118"/>
+    </row>
+    <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="102"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="30" t="s">
-        <v>67</v>
+      <c r="G17" s="51"/>
+      <c r="H17" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="60"/>
-    </row>
-    <row r="18" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="107"/>
-      <c r="C18" s="63"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="118"/>
+    </row>
+    <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="102"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="118"/>
+    </row>
+    <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="103"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="108"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="121"/>
+    </row>
+    <row r="20" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-    </row>
-    <row r="21" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="82"/>
-      <c r="C21" s="102" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+    </row>
+    <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="77"/>
+      <c r="C21" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82"/>
-      <c r="C22" s="74" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="77"/>
+      <c r="C22" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="82"/>
-      <c r="C23" s="74" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="77"/>
+      <c r="C23" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
-      <c r="C24" s="74" t="s">
+    <row r="24" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="77"/>
+      <c r="C24" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="82"/>
-      <c r="C25" s="74" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="77"/>
+      <c r="C25" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="74" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="77"/>
+      <c r="C26" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="82"/>
-      <c r="C27" s="74" t="s">
+    <row r="27" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="77"/>
+      <c r="C27" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="82"/>
-      <c r="C28" s="74" t="s">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="77"/>
+      <c r="C28" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="82"/>
-      <c r="C29" s="74" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="77"/>
+      <c r="C29" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="82"/>
-      <c r="C30" s="74" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="77"/>
+      <c r="C30" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="83"/>
-      <c r="C31" s="76" t="s">
+    <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="78"/>
+      <c r="C31" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L8:U17"/>
-    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="L8:W19"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G14:G19"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:D21"/>
@@ -2093,11 +2197,10 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G8:G11"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,64 +2213,64 @@
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="L7" sqref="L7:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="51" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="55"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="81" t="s">
+      <c r="S2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="94"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2196,25 +2299,25 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="82"/>
+      <c r="S3" s="77"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="50" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2235,10 +2338,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="80"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2246,19 +2349,19 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="82"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -2266,7 +2369,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="49"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2285,8 +2388,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2294,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="82"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -2303,14 +2406,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="91"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2329,8 +2432,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="78"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="73"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2338,17 +2441,17 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="82"/>
+      <c r="S6" s="77"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="91"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="63" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -2356,7 +2459,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2371,32 +2474,32 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="98"/>
+      <c r="L7" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="93"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="82"/>
+      <c r="S7" s="77"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="46" t="s">
+      <c r="U7" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="92"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2409,14 +2512,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="98"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="93"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="82"/>
+      <c r="S8" s="77"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -2425,10 +2528,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -2436,23 +2539,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="98"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="93"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="82"/>
+      <c r="S9" s="77"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2461,32 +2564,32 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="98"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="93"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="82"/>
+      <c r="S10" s="77"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="45" t="s">
+      <c r="U10" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2496,7 +2599,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2511,18 +2614,18 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="98"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="93"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="82"/>
+      <c r="S11" s="77"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="48" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2532,7 +2635,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="50"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2545,14 +2648,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="82"/>
+      <c r="S12" s="77"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2681,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="83"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>

--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="77">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,25 +322,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> O : 온전한 작동
+    <t>오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ O : 온전한 작동
  △ : 가끔씩 버그 터짐. 수정중
  ▲ : 미구현 혹은 커다란 버그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -794,63 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,63 +801,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -935,83 +969,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,7 +1364,7 @@
   <dimension ref="B1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1355,43 +1389,43 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="77" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="E2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="112" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="53" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1415,23 +1449,23 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="99"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="5" t="s">
+      <c r="E3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="53" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -1440,17 +1474,17 @@
       <c r="M3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>7</v>
@@ -1481,34 +1515,45 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="77" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="27"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="28"/>
       <c r="Q4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
       <c r="U4" s="34"/>
       <c r="V4" s="34"/>
       <c r="W4" s="35"/>
@@ -1517,27 +1562,27 @@
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="99"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="105" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="35" t="s">
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="50" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="34" t="s">
@@ -1546,10 +1591,14 @@
       <c r="M5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="40"/>
+      <c r="N5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="122"/>
       <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
@@ -1563,67 +1612,67 @@
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="104" t="s">
+      <c r="AA5" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="99"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="56" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="45" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
+      <c r="L6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
       <c r="V6" s="28"/>
       <c r="W6" s="29"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="100"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1642,37 +1691,37 @@
       <c r="M7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="45"/>
+      <c r="N7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="124"/>
       <c r="R7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="31"/>
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="67" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="33" t="s">
@@ -1681,37 +1730,37 @@
       <c r="I8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="45" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="118"/>
+      <c r="L8" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="129"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="99"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="115"/>
+      <c r="E9" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="99"/>
       <c r="H9" s="30" t="s">
         <v>5</v>
       </c>
@@ -1724,86 +1773,86 @@
       <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="118"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="129"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="94" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="115"/>
+      <c r="E10" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="99"/>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="116"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="28" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="118"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="129"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="99"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="115"/>
+      <c r="E11" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="99"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="118"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="129"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="77" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -1812,63 +1861,69 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="115"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="117"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="118"/>
+        <v>74</v>
+      </c>
+      <c r="I12" s="121"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="129"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="100"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="114"/>
+      <c r="E13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="100"/>
       <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="118"/>
+        <v>75</v>
+      </c>
+      <c r="I13" s="125"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="129"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="85" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="50" t="s">
+      <c r="E14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="64" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="34" t="s">
@@ -1883,297 +1938,304 @@
       <c r="K14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="118"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="129"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102"/>
-      <c r="C15" s="58"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="51"/>
+      <c r="E15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="65"/>
       <c r="H15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="45" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="117"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="118"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="129"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="51"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="118"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="129"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="118"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="129"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="102"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="118"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="129"/>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="103"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="121"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="133"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-    </row>
-    <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="77"/>
-      <c r="C21" s="97" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="101"/>
+    </row>
+    <row r="21" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="80"/>
+      <c r="C21" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="108"/>
+      <c r="E21" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="77"/>
-      <c r="C22" s="69" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="77"/>
-      <c r="C23" s="69" t="s">
+      <c r="D22" s="120"/>
+      <c r="E22" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="80"/>
+      <c r="C23" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="77"/>
-      <c r="C25" s="69" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="48" t="s">
-        <v>20</v>
+      <c r="D25" s="89"/>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="77"/>
-      <c r="C27" s="69" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="77"/>
-      <c r="C28" s="69" t="s">
+      <c r="B28" s="80"/>
+      <c r="C28" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="89"/>
+      <c r="E28" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="77"/>
-      <c r="C29" s="69" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="48" t="s">
+      <c r="D29" s="89"/>
+      <c r="E29" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="77"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="80"/>
+      <c r="C30" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="78"/>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="73"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="L8:W19"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
+  <mergeCells count="34">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:D21"/>
@@ -2190,17 +2252,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="L8:W19"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2220,10 +2277,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2231,37 +2288,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="53" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55"/>
+      <c r="Q2" s="63"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="88" t="s">
+      <c r="T2" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="89"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2269,8 +2326,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2299,17 +2356,17 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="77"/>
+      <c r="S3" s="80"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2317,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2338,10 +2395,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="75"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2349,19 +2406,19 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="77"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="77" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -2369,7 +2426,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2388,8 +2445,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="77"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -2406,14 +2463,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="86"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2432,8 +2489,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="73"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2441,17 +2498,17 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="77"/>
+      <c r="S6" s="80"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="U6" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="86"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="119" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -2459,7 +2516,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="64" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2474,32 +2531,32 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="93"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="77"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="U7" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="87"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2512,14 +2569,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="93"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="77"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -2528,10 +2585,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -2539,23 +2596,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="93"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="104"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="77"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2564,32 +2621,32 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="52"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="93"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="77"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="47" t="s">
+      <c r="U10" s="46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2599,7 +2656,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="64" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2614,18 +2671,18 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="93"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="104"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="77"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="48" t="s">
+      <c r="U11" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2635,7 +2692,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="52"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2648,14 +2705,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="77"/>
+      <c r="S12" s="80"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2738,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="78"/>
+      <c r="S13" s="81"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -2691,6 +2748,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -2702,12 +2765,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2862,18 +2919,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2895,6 +2952,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2908,12 +2973,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="78">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,10 @@
  O : 온전한 작동
  △ : 가끔씩 버그 터짐. 수정중
  ▲ : 미구현 혹은 커다란 버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,132 +829,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,83 +1042,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE31"/>
+  <dimension ref="B1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X20" sqref="X20"/>
@@ -1389,10 +1390,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -1401,31 +1402,31 @@
       <c r="E2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="61" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="65"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1449,16 +1450,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="71"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1515,8 +1516,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="71"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="91" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="38" t="s">
@@ -1525,10 +1526,10 @@
       <c r="E4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1562,15 +1563,15 @@
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="71"/>
-      <c r="C5" s="78"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="70" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1597,8 +1598,8 @@
       <c r="O5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="122"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="111"/>
       <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
@@ -1617,8 +1618,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="56" t="s">
@@ -1627,7 +1628,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1650,8 +1651,8 @@
         <v>21</v>
       </c>
       <c r="O6" s="41"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="124"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="45" t="s">
         <v>20</v>
       </c>
@@ -1664,15 +1665,15 @@
       <c r="W6" s="29"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="72"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1695,8 +1696,8 @@
         <v>21</v>
       </c>
       <c r="O7" s="44"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="124"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="15" t="s">
         <v>20</v>
       </c>
@@ -1709,10 +1710,10 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="60" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="34" t="s">
@@ -1721,7 +1722,7 @@
       <c r="E8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="73" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="33" t="s">
@@ -1736,31 +1737,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="129"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="104"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="99"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="30" t="s">
         <v>5</v>
       </c>
@@ -1773,22 +1774,22 @@
       <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="129"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="104"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1797,7 +1798,7 @@
       <c r="E10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="99"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,51 +1809,51 @@
       <c r="K10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="130"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="129"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="104"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="71"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="99"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="129"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="104"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="91" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -1861,60 +1862,60 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="99"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="129"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="104"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="72"/>
-      <c r="C13" s="78"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="100"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="129"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="104"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="99" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1923,7 +1924,7 @@
       <c r="E14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="70" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="34" t="s">
@@ -1938,29 +1939,29 @@
       <c r="K14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="129"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="104"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="28" t="s">
         <v>70</v>
       </c>
@@ -1973,257 +1974,275 @@
       <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="130"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="129"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="104"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="65"/>
+      <c r="E16" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="71"/>
       <c r="H16" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="59"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="129"/>
-    </row>
-    <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="104"/>
+    </row>
+    <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="97"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="65"/>
+      <c r="E17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="71"/>
       <c r="H17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="59"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="129"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="104"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="59"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="129"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="104"/>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="84"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="66"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="31" t="s">
         <v>66</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="43"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="133"/>
-    </row>
-    <row r="20" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="101"/>
-    </row>
-    <row r="21" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="75" t="s">
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="108"/>
+    </row>
+    <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="80"/>
-      <c r="C22" s="88" t="s">
+      <c r="D20" s="90"/>
+      <c r="E20" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="94"/>
+      <c r="C21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="47" t="s">
-        <v>20</v>
+      <c r="D21" s="102"/>
+      <c r="E21" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="94"/>
+      <c r="C22" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="89"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="81"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="89"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="94"/>
+      <c r="C24" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="81"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="89"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="81"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="89"/>
+    <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="94"/>
+      <c r="C26" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="81"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="3" t="s">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="94"/>
+      <c r="C27" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="94"/>
+      <c r="C28" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="81"/>
+      <c r="E28" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="94"/>
+      <c r="C29" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
-      <c r="C28" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="80"/>
-      <c r="C29" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="3" t="s">
+    <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="95"/>
+      <c r="C30" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="83"/>
+      <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="81"/>
-      <c r="C31" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
+    <mergeCell ref="L8:W19"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="I2:K2"/>
@@ -2231,33 +2250,6 @@
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="I12:K13"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="L8:W19"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,10 +2269,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="111"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2288,37 +2280,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="63"/>
+      <c r="Q2" s="65"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="101"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2326,8 +2318,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2356,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="80"/>
+      <c r="S3" s="94"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -2365,8 +2357,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +2366,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="70" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2395,10 +2387,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="76"/>
+      <c r="O4" s="131"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2398,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="80"/>
+      <c r="S4" s="94"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -2415,10 +2407,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="91" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -2426,7 +2418,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="65"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2445,8 +2437,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2454,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="80"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -2463,14 +2455,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="117"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2489,8 +2481,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2498,7 +2490,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="80"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -2507,8 +2499,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="117"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="123" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -2516,7 +2508,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="70" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2531,16 +2523,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="104"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="127"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="80"/>
+      <c r="S7" s="94"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -2549,14 +2541,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="118"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="65"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2569,14 +2561,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="104"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="127"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="80"/>
+      <c r="S8" s="94"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -2585,10 +2577,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="91" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -2596,23 +2588,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="65"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="104"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="127"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="80"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2621,28 +2613,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="66"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="66"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="104"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="127"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="80"/>
+      <c r="S10" s="94"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -2656,7 +2648,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="70" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2671,14 +2663,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="104"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="127"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="80"/>
+      <c r="S11" s="94"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -2692,7 +2684,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="66"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2705,14 +2697,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="80"/>
+      <c r="S12" s="94"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -2738,7 +2730,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="81"/>
+      <c r="S13" s="95"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -2748,12 +2740,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -2766,6 +2752,12 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,18 +2911,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2952,14 +2944,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2973,4 +2957,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9F192-1059-4305-B1BD-B0F77A77AAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CollisionTest" sheetId="3" r:id="rId1"/>
@@ -20,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="76">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,29 +322,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책</t>
+    <t>캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
  O : 온전한 작동
- △ : 가끔씩 버그 터짐. 수정중
+ △ : 수정중 혹은 작은 버그
  ▲ : 미구현 혹은 커다란 버그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,73 +720,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,136 +777,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,58 +813,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,6 +961,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,11 +1312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="B2" sqref="B2:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1390,43 +1344,43 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="66" t="s">
+      <c r="E2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="63" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="63" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1450,23 +1404,23 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="E3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -1475,10 +1429,10 @@
       <c r="M3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="7" t="s">
@@ -1487,7 +1441,7 @@
       <c r="Q3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -1516,62 +1470,73 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="85"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="73" t="s">
+      <c r="E4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="109"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="O4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="S4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="T4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
+      <c r="U4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="87"/>
+      <c r="W4" s="88"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1583,101 +1548,111 @@
       <c r="J5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="34" t="s">
+      <c r="K5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="35"/>
+      <c r="O5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="87"/>
+      <c r="W5" s="88"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="54" t="s">
+      <c r="AA5" s="43" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="85"/>
-      <c r="C6" s="91" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
+      <c r="L6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="87"/>
+      <c r="W6" s="88"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="86"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="57" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1692,537 +1667,525 @@
       <c r="M7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="15" t="s">
+      <c r="N7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="T7" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="109"/>
+      <c r="W7" s="90"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="73" t="s">
+      <c r="E8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="104"/>
+      <c r="L8" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="30" t="s">
+      <c r="E9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="104"/>
+      <c r="I9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="2" t="s">
+      <c r="E10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="104"/>
+      <c r="I10" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="104"/>
+      <c r="I11" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="104"/>
+      <c r="G12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="86"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="104"/>
+      <c r="E13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="104"/>
+      <c r="E14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="97"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="71"/>
+      <c r="E15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="66"/>
       <c r="H15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="104"/>
+      <c r="J15" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="71"/>
+      <c r="E16" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="66"/>
       <c r="H16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="104"/>
+        <v>65</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="58"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="97"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="104"/>
+      <c r="E17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="89"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104"/>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="98"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="108"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="89" t="s">
+      <c r="B20" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="46" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="94"/>
-      <c r="C21" s="80" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="47" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="94"/>
-      <c r="C22" s="80" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="81"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="94"/>
-      <c r="C23" s="80" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="94"/>
-      <c r="C24" s="80" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="94"/>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="94"/>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="94"/>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="94"/>
-      <c r="C28" s="80" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="88"/>
+      <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="94"/>
-      <c r="C29" s="80" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="81"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="95"/>
-      <c r="C30" s="82" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="L8:W19"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
+  <mergeCells count="34">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -2239,26 +2202,27 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2269,57 +2233,57 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="63" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="63" t="s">
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="65"/>
+      <c r="Q2" s="64"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="88"/>
+      <c r="U2" s="100"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2348,25 +2312,25 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="94"/>
+      <c r="S3" s="78"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2387,10 +2351,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="131"/>
+      <c r="O4" s="108"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2398,19 +2362,19 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="94"/>
+      <c r="S4" s="78"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="76" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -2418,7 +2382,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="71"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2437,8 +2401,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2446,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="94"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -2455,14 +2419,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="121"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="72"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2481,8 +2445,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2490,17 +2454,17 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="94"/>
+      <c r="S6" s="78"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="121"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="120" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -2508,7 +2472,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2523,32 +2487,32 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="127"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="94"/>
+      <c r="S7" s="78"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="122"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2561,14 +2525,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="127"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="94"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -2577,10 +2541,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="76" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -2588,23 +2552,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="127"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="104"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="94"/>
+      <c r="S9" s="78"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2613,32 +2577,32 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="72"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="72"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="127"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="94"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2648,7 +2612,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="65" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2663,18 +2627,18 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="127"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="104"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="94"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2684,7 +2648,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="72"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2697,14 +2661,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="130"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="94"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2694,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="95"/>
+      <c r="S13" s="79"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -2740,6 +2704,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -2752,12 +2722,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2765,6 +2729,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -2910,35 +2889,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2960,9 +2914,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9F192-1059-4305-B1BD-B0F77A77AAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="CollisionTest" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Game" sheetId="5" r:id="rId1"/>
+    <sheet name="CollisionTest" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="86">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,12 +332,55 @@
  ▲ : 미구현 혹은 커다란 버그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무빙큐브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전판자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ O : 온전한 작동
+ △ : 수정중 혹은 작은 버그
+ ▲ : 미구현 혹은 커다란 버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +435,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -632,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,130 +856,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,47 +1078,116 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,14 +1502,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Y30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="7.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="102"/>
+      <c r="I2" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+    </row>
+    <row r="3" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="75"/>
+      <c r="C3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="76"/>
+      <c r="C4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="91"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="167"/>
+    </row>
+    <row r="5" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="162"/>
+      <c r="Y5" s="43"/>
+    </row>
+    <row r="6" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="75"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="162"/>
+    </row>
+    <row r="7" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="75"/>
+      <c r="C7" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="95"/>
+      <c r="H7" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="163"/>
+    </row>
+    <row r="8" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="75"/>
+      <c r="C8" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="148"/>
+    </row>
+    <row r="9" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="76"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="107"/>
+    </row>
+    <row r="10" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="107"/>
+    </row>
+    <row r="11" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="75"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="107"/>
+    </row>
+    <row r="12" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="107"/>
+    </row>
+    <row r="13" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="75"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="107"/>
+    </row>
+    <row r="14" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="76"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="107"/>
+    </row>
+    <row r="15" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="107"/>
+    </row>
+    <row r="16" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="81"/>
+      <c r="C16" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="95"/>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="109"/>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81"/>
+      <c r="C17" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="111"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="81"/>
+      <c r="C18" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="81"/>
+      <c r="C19" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="81"/>
+      <c r="C20" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="81"/>
+      <c r="C21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="82"/>
+      <c r="C22" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="L8:U16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1344,10 +2140,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="79" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -1356,31 +2152,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="68" t="s">
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="62" t="s">
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="64"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="92"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1404,16 +2200,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="72"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1470,8 +2266,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="72"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="79" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1480,10 +2276,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1521,22 +2317,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="68"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="72"/>
-      <c r="C5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="93" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1563,8 +2359,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1577,8 +2373,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="87"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="68"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1587,8 +2383,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="72"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -1597,7 +2393,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1622,8 +2418,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1636,19 +2432,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="87"/>
-      <c r="W6" s="88"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73"/>
-      <c r="C7" s="77"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1673,8 +2469,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1687,14 +2483,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="90"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="70"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="71" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -1703,7 +2499,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="93" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -1718,31 +2514,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="107"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="72"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -1755,22 +2551,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="107"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="93" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -1779,7 +2575,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -1792,29 +2588,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="107"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="72"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -1827,22 +2623,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="79" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -1851,7 +2647,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="93" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -1866,29 +2662,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="107"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="73"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -1901,24 +2697,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="107"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="86" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1927,7 +2723,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -1940,29 +2736,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="107"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -1975,80 +2771,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="58"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="107"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="107"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="81"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
-    </row>
-    <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="84"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="109"/>
+    </row>
+    <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2057,135 +2853,367 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G19" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="136"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="136"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="135"/>
+      <c r="S19" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="135"/>
+      <c r="U19" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" s="135"/>
+      <c r="W19" s="143"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
+      <c r="G20" s="137"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="144"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="144"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="86" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="144"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="144"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G24" s="137"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="144"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="86" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G25" s="137"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="144"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="78"/>
-      <c r="C26" s="86" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G26" s="137"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="144"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="78"/>
-      <c r="C27" s="86" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="144"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78"/>
-      <c r="C28" s="86" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
+      <c r="G28" s="137"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="144"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="86" t="s">
+      <c r="B29" s="81"/>
+      <c r="C29" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="G29" s="137"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="144"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="79"/>
-      <c r="C30" s="89" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="90"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="42">
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -2202,27 +3230,21 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,10 +3255,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="112"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2244,37 +3266,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62" t="s">
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="62" t="s">
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="64"/>
+      <c r="Q2" s="92"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="110" t="s">
+      <c r="S2" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="99" t="s">
+      <c r="T2" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="100"/>
+      <c r="U2" s="123"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2282,8 +3304,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="78"/>
+      <c r="S3" s="81"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -2321,8 +3343,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2330,7 +3352,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="93" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2351,10 +3373,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="108"/>
+      <c r="O4" s="111"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -2362,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="78"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -2371,10 +3393,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="79" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -2382,7 +3404,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="66"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2401,8 +3423,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="88"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2410,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="78"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -2419,14 +3441,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="118"/>
-      <c r="C6" s="77"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="67"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2445,8 +3467,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2454,7 +3476,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="78"/>
+      <c r="S6" s="81"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -2463,8 +3485,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="118"/>
-      <c r="C7" s="120" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="121" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -2472,7 +3494,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="93" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2487,16 +3509,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="104"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="127"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="78"/>
+      <c r="S7" s="81"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -2505,14 +3527,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="119"/>
-      <c r="C8" s="77"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="66"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -2525,14 +3547,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="104"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="127"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="78"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -2541,10 +3563,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="79" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -2552,23 +3574,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="104"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="127"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="78"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2577,28 +3599,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="104"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="127"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="78"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -2612,7 +3634,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="93" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2627,14 +3649,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="104"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="127"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="78"/>
+      <c r="S11" s="81"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -2648,7 +3670,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="67"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2661,14 +3683,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="78"/>
+      <c r="S12" s="81"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -2694,7 +3716,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="79"/>
+      <c r="S13" s="82"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -2704,12 +3726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -2722,6 +3738,12 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2738,12 +3760,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -2889,6 +3905,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
@@ -2898,22 +3920,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2929,4 +3935,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="88">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,14 @@
  O : 온전한 작동
  △ : 수정중 혹은 작은 버그
  ▲ : 미구현 혹은 커다란 버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹과 검은색 처리 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 사이길 캐릭터 OBB 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,99 +879,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,39 +921,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1015,40 +942,163 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,116 +1128,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,10 +1478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y30"/>
+  <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,16 +1497,15 @@
     <col min="9" max="16" width="7.625" style="1" customWidth="1"/>
     <col min="17" max="18" width="10.125" style="1" customWidth="1"/>
     <col min="19" max="20" width="7.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="9.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="21" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="9.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="83" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1546,32 +1517,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="96" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="90" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
-    </row>
-    <row r="3" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="75"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="112"/>
+    </row>
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="84"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1581,50 +1551,47 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="68" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="76"/>
+    </row>
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="85"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1634,35 +1601,52 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="167"/>
-    </row>
-    <row r="5" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="74" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="102" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1671,57 +1655,95 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="162"/>
-      <c r="Y5" s="43"/>
-    </row>
-    <row r="6" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="75"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="66" t="s">
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="43"/>
+    </row>
+    <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="84"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="162"/>
-    </row>
-    <row r="7" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="75"/>
-      <c r="C7" s="64" t="s">
+      <c r="I6" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84"/>
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -1730,358 +1752,386 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="163"/>
-    </row>
-    <row r="8" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75"/>
-      <c r="C8" s="79" t="s">
+      <c r="I7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="84"/>
+      <c r="C8" s="104" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="93" t="s">
+      <c r="E8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="146" t="s">
+      <c r="H8" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="148"/>
-    </row>
-    <row r="9" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="76"/>
-      <c r="C9" s="121"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="80"/>
+    </row>
+    <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="85"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="107"/>
-    </row>
-    <row r="10" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="E9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="79"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="80"/>
+    </row>
+    <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="107"/>
-    </row>
-    <row r="11" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="75"/>
-      <c r="C11" s="87"/>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="79"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="80"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="84"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="107"/>
-    </row>
-    <row r="12" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="87"/>
+      <c r="G11" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="80"/>
+    </row>
+    <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="84"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="107"/>
-    </row>
-    <row r="13" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="75"/>
-      <c r="C13" s="87"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="80"/>
+    </row>
+    <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="85"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="107"/>
-    </row>
-    <row r="14" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="76"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="2" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="107"/>
-    </row>
-    <row r="15" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131" t="s">
+      <c r="I13" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="80"/>
+    </row>
+    <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C14" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="4" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="107"/>
-    </row>
-    <row r="16" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="81"/>
-      <c r="C16" s="67" t="s">
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="82"/>
+    </row>
+    <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="90"/>
+      <c r="C15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="109"/>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="77" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="90"/>
+      <c r="C16" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="2" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="81"/>
-      <c r="C18" s="69" t="s">
+      <c r="H16" s="43"/>
+      <c r="Q16" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="90"/>
+      <c r="C17" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="4" t="s">
+      <c r="D17" s="98"/>
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
-      <c r="C19" s="77" t="s">
+      <c r="Q17" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
+      <c r="C18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="2" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="69" t="s">
+    <row r="19" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="90"/>
+      <c r="C19" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="4" t="s">
+      <c r="D19" s="98"/>
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="67" t="s">
+    <row r="20" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="90"/>
+      <c r="C20" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82"/>
-      <c r="C22" s="69" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="91"/>
+      <c r="C21" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="L8:U16"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="L8:T14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B14:B21"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -2089,17 +2139,7 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="O5:P7"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2140,10 +2180,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="104" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2152,31 +2192,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="96" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="90" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="92"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="112"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2200,16 +2240,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2266,8 +2306,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="75"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="104" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2276,10 +2316,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2317,22 +2357,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="68"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="99"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="75"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="73" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2359,8 +2399,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2373,8 +2413,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="89"/>
-      <c r="W5" s="68"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="99"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2383,8 +2423,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="75"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="104" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2393,7 +2433,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2418,8 +2458,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2432,19 +2472,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="89"/>
-      <c r="W6" s="68"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="99"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2469,8 +2509,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2483,14 +2523,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="110"/>
-      <c r="W7" s="70"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="98"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="102" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2499,7 +2539,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="73" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2514,31 +2554,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="80"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -2551,22 +2591,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="107"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="80"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="135" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2575,7 +2615,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -2588,29 +2628,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="107"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="80"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="75"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2623,22 +2663,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="107"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="80"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="79" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="104" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -2647,7 +2687,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="73" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -2662,29 +2702,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="80"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="76"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -2697,21 +2737,21 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="107"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="80"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="132" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="86" t="s">
@@ -2723,7 +2763,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="94"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -2736,21 +2776,21 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="107"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="80"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="84"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="87"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -2758,7 +2798,7 @@
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="94"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -2771,21 +2811,21 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="107"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="80"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="84"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="87"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -2793,28 +2833,28 @@
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="94"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="107"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="80"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="84"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="87"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -2822,28 +2862,28 @@
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="69"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="109"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="82"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="87"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
@@ -2853,7 +2893,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="85"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="88"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
@@ -2861,359 +2901,345 @@
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="134" t="s">
+      <c r="G19" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="134" t="s">
+      <c r="H19" s="117"/>
+      <c r="I19" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="136"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="134" t="s">
+      <c r="J19" s="122"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="134" t="s">
+      <c r="M19" s="122"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="134" t="s">
+      <c r="P19" s="117"/>
+      <c r="Q19" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="135"/>
-      <c r="S19" s="134" t="s">
+      <c r="R19" s="117"/>
+      <c r="S19" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136" t="s">
+      <c r="T19" s="117"/>
+      <c r="U19" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="135"/>
-      <c r="W19" s="143"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="125"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="137"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="144"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="126"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="81"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="137"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="144"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="126"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="144"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="126"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="139"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="144"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="126"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
-      <c r="C24" s="67" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="144"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="126"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="144"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="126"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="81"/>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="144"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="126"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="137"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="144"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="126"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="81"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="137"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="144"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="126"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="68"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="137"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="144"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="126"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="82"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="91"/>
+      <c r="C30" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="140"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="145"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="S19:T30"/>
-    <mergeCell ref="U19:V30"/>
-    <mergeCell ref="W19:W30"/>
-    <mergeCell ref="G19:H30"/>
-    <mergeCell ref="I19:K30"/>
-    <mergeCell ref="L19:N30"/>
-    <mergeCell ref="O19:P30"/>
-    <mergeCell ref="Q19:R30"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -3230,12 +3256,26 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3255,10 +3295,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="146"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3266,37 +3306,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="90" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="90" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="90" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="131" t="s">
+      <c r="S2" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="122" t="s">
+      <c r="T2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="123"/>
+      <c r="U2" s="137"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3304,8 +3344,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="81"/>
+      <c r="S3" s="90"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3343,8 +3383,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3352,7 +3392,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="73" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3373,10 +3413,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="111"/>
+      <c r="O4" s="96"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="81"/>
+      <c r="S4" s="90"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3393,10 +3433,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="104" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3404,7 +3444,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="94"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3423,8 +3463,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3432,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="81"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3441,14 +3481,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="95"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3467,8 +3507,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3476,7 +3516,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="81"/>
+      <c r="S6" s="90"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3485,8 +3525,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="119"/>
-      <c r="C7" s="121" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="105" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3494,7 +3534,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="73" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3509,16 +3549,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="127"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="141"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="81"/>
+      <c r="S7" s="90"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3527,14 +3567,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="120"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="94"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3547,14 +3587,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="127"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="141"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="81"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -3563,10 +3603,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -3574,23 +3614,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="94"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="127"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="141"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="81"/>
+      <c r="S9" s="90"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -3599,28 +3639,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="95"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="95"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="127"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="141"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="81"/>
+      <c r="S10" s="90"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -3634,7 +3674,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="73" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -3649,14 +3689,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="127"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="141"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="81"/>
+      <c r="S11" s="90"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -3670,7 +3710,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="95"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3683,14 +3723,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="130"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="81"/>
+      <c r="S12" s="90"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +3756,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="82"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -3726,6 +3766,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -3738,12 +3784,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3751,12 +3791,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3906,15 +3943,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3938,17 +3986,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="89">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,10 @@
   </si>
   <si>
     <t>문 사이길 캐릭터 OBB 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 타일과 다리 충돌 Ray로 바꿈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1618,7 @@
       <c r="K4" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="39" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="71" t="s">
@@ -2072,6 +2076,9 @@
       <c r="D18" s="96"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAEEC88-C2B7-4AC1-AFCF-9447DC963F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="5" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="105">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,23 +377,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기믹과 검은색 처리 생각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문 사이길 캐릭터 OBB 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 타일과 다리 충돌 Ray로 바꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 리포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹이 주는 힘과 캐릭터, Pobject가 주는 힘 분리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 매니저 콜리더 부분 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치로 인해 열린 문에 다른 P오브젝트 닿으면 다시 닫힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 열렸을 때 Frame OBB 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool값을 따로 줘서 막기 부여. 혹은 OBB랑 병합?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력 역시 마찰력이 들어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속힘과 캐릭터가 주는 힘 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 잡기, 당기기에 대한 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션 이동으로 밀다가 떼어지거나 외부 힘을 받으면 그때 힘을 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결 방법 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹과 검은색 오브젝트 충돌 처리 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터와 기믹 간의 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>문 Frame OBB 제거(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임시방편</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB 밀어내기 or 캐릭터 포지션 강제 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔레트 실행시 일시정지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +548,16 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -696,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +1017,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,6 +1045,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,25 +1083,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,85 +1173,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,28 +1218,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,38 +1272,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,14 +1630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1521,31 +1673,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="110" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="110" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="112"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="88"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="84"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1555,8 +1707,8 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1747,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="85"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1605,17 +1757,17 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="154" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="155" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="76" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="39" t="s">
@@ -1627,7 +1779,7 @@
       <c r="N4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="154" t="s">
+      <c r="O4" s="75" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1647,10 +1799,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1659,7 +1811,7 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="81" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="66" t="s">
@@ -1674,8 +1826,8 @@
       <c r="K5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="64" t="s">
-        <v>21</v>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="M5" s="64" t="s">
         <v>30</v>
@@ -1683,10 +1835,10 @@
       <c r="N5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="64" t="s">
-        <v>21</v>
+      <c r="O5" s="116"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="R5" s="70" t="s">
         <v>30</v>
@@ -1700,15 +1852,15 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1873,7 @@
       <c r="K6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="64" t="s">
@@ -1730,8 +1882,8 @@
       <c r="N6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="101"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="117"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1898,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1908,7 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1921,7 @@
       <c r="K7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="64" t="s">
@@ -1778,8 +1930,8 @@
       <c r="N7" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="101"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="117"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1794,8 +1946,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="89" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -1804,14 +1956,14 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="80" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="68" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>21</v>
@@ -1819,28 +1971,28 @@
       <c r="K8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="80"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="95"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="68" t="s">
         <v>1</v>
       </c>
@@ -1853,21 +2005,21 @@
       <c r="K9" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="80"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="95"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="89" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1876,7 +2028,7 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="66" t="s">
         <v>2</v>
       </c>
@@ -1889,33 +2041,33 @@
       <c r="K10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="80"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="95"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="84"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="64" t="s">
-        <v>21</v>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>20</v>
@@ -1923,26 +2075,26 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="80"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
@@ -1955,26 +2107,26 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="80"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="85"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="74"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="68" t="s">
         <v>10</v>
       </c>
@@ -1987,28 +2139,28 @@
       <c r="K13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="80"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="66" t="s">
         <v>9</v>
       </c>
@@ -2021,107 +2173,334 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="98"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="90"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="92" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="96"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="Q16" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="90"/>
-      <c r="C17" s="97" t="s">
+      <c r="G16" s="158" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="159"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="159"/>
+      <c r="T16" s="160"/>
+    </row>
+    <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="106"/>
+      <c r="C17" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="92" t="s">
+      <c r="G17" s="167"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="168"/>
+    </row>
+    <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="106"/>
+      <c r="C18" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="96"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="G18" s="170" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="166" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="90"/>
-      <c r="C19" s="97" t="s">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="106"/>
+      <c r="C19" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="94" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="162" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="74"/>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="106"/>
+      <c r="C20" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="91"/>
-      <c r="C21" s="97" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="164" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+    </row>
+    <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="107"/>
+      <c r="C21" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="164" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="74"/>
+    </row>
+    <row r="22" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="5"/>
+      <c r="H22" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="74"/>
+    </row>
+    <row r="23" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="5"/>
+      <c r="H23" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="164" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="74"/>
+    </row>
+    <row r="24" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="5"/>
+      <c r="H24" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="164" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="171"/>
+    </row>
+    <row r="25" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="5"/>
+      <c r="H25" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="171"/>
+    </row>
+    <row r="26" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="5"/>
+      <c r="H26" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="171"/>
+    </row>
+    <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="5"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="171"/>
+    </row>
+    <row r="28" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="5"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="172"/>
+    </row>
+    <row r="29" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="N16:T17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G14"/>
@@ -2138,15 +2517,6 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O5:P7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2155,7 +2525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2187,10 +2557,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2199,31 +2569,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="110" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="110" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="112"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2247,16 +2617,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="84"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2313,8 +2683,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="84"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2323,10 +2693,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="114"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2364,22 +2734,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="99"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="115"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84"/>
-      <c r="C5" s="131"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="80" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2406,8 +2776,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2420,8 +2790,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="95"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="115"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,8 +2800,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2440,7 +2810,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2465,8 +2835,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2479,19 +2849,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="95"/>
-      <c r="W6" s="99"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="85"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2516,8 +2886,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2530,14 +2900,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="130"/>
-      <c r="W7" s="98"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="99" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2546,7 +2916,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="80" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2561,31 +2931,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="80"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="95"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="84"/>
-      <c r="C9" s="103"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -2598,22 +2968,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="80"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="95"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
-      <c r="C10" s="135" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="118" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2622,7 +2992,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -2635,29 +3005,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="80"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="95"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="84"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2670,22 +3040,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="80"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="95"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="89" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -2694,7 +3064,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -2709,29 +3079,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="80"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="95"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="85"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="74"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -2744,24 +3114,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="80"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="95"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="122" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2770,7 +3140,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -2783,29 +3153,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="80"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="95"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="133"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="74"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -2818,80 +3188,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="80"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="95"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="80"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="95"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="133"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="75"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="82"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="98"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2900,353 +3270,367 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="134"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="116" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="116" t="s">
+      <c r="J19" s="134"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="122"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="116" t="s">
+      <c r="M19" s="134"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="116" t="s">
+      <c r="P19" s="129"/>
+      <c r="Q19" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="116" t="s">
+      <c r="R19" s="129"/>
+      <c r="S19" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="117"/>
-      <c r="U19" s="122" t="s">
+      <c r="T19" s="129"/>
+      <c r="U19" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="117"/>
-      <c r="W19" s="125"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="137"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="126"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="138"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="90"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="126"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="138"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="94" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="126"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="138"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="94" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="126"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="138"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="94" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="126"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="138"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="94" t="s">
+      <c r="B25" s="106"/>
+      <c r="C25" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="126"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="138"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="90"/>
-      <c r="C26" s="94" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="126"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="138"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="90"/>
-      <c r="C27" s="94" t="s">
+      <c r="B27" s="106"/>
+      <c r="C27" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="126"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="138"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="90"/>
-      <c r="C28" s="94" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="99"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="126"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="138"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="94" t="s">
+      <c r="B29" s="106"/>
+      <c r="C29" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="126"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="138"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="91"/>
-      <c r="C30" s="97" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="98"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="127"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -3263,26 +3647,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="S19:T30"/>
-    <mergeCell ref="U19:V30"/>
-    <mergeCell ref="W19:W30"/>
-    <mergeCell ref="G19:H30"/>
-    <mergeCell ref="I19:K30"/>
-    <mergeCell ref="L19:N30"/>
-    <mergeCell ref="O19:P30"/>
-    <mergeCell ref="Q19:R30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3291,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,10 +3672,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="146"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3313,37 +3683,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="110" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="110" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="110" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="112"/>
+      <c r="Q2" s="88"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="136" t="s">
+      <c r="T2" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="137"/>
+      <c r="U2" s="150"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3351,8 +3721,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="90"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3390,8 +3760,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3399,7 +3769,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="80" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3420,10 +3790,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="96"/>
+      <c r="O4" s="112"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3431,7 +3801,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="90"/>
+      <c r="S4" s="106"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3440,10 +3810,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="89" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3451,7 +3821,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="74"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3470,8 +3840,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="94"/>
-      <c r="O5" s="99"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3479,7 +3849,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3488,14 +3858,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="152"/>
-      <c r="C6" s="131"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="75"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3514,8 +3884,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="98"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3523,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="90"/>
+      <c r="S6" s="106"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3532,8 +3902,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="152"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="90" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3541,7 +3911,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="80" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3556,16 +3926,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="138" t="s">
+      <c r="L7" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="141"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="154"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="90"/>
+      <c r="S7" s="106"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3574,14 +3944,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="153"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="74"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3594,14 +3964,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="141"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="154"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="90"/>
+      <c r="S8" s="106"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -3610,10 +3980,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="89" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -3621,23 +3991,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="74"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="141"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="154"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="90"/>
+      <c r="S9" s="106"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -3646,28 +4016,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="75"/>
-      <c r="C10" s="131"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="75"/>
+      <c r="G10" s="82"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="141"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="154"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="90"/>
+      <c r="S10" s="106"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -3681,7 +4051,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -3696,14 +4066,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="141"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="154"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="90"/>
+      <c r="S11" s="106"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -3717,7 +4087,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="75"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3730,14 +4100,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="144"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="90"/>
+      <c r="S12" s="106"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -3763,7 +4133,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="91"/>
+      <c r="S13" s="107"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -3773,12 +4143,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -3791,6 +4155,12 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,9 +4168,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3950,26 +4323,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3993,9 +4355,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAEEC88-C2B7-4AC1-AFCF-9447DC963F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1BF7FF-4E5A-4FC1-901B-63F8438AC65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="106">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t>팔레트 실행시 일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일이 tranlsation.y 되었을 시 레이 처리 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,13 +997,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1011,22 +1072,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,34 +1171,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,51 +1334,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,7 +1656,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="92" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1673,31 +1692,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="86" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="86" t="s">
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1707,15 +1726,15 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="66" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -1727,27 +1746,27 @@
       <c r="N3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="P3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="79"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1757,29 +1776,29 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="76" t="s">
+      <c r="H4" s="102"/>
+      <c r="I4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="73" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="75" t="s">
+      <c r="M4" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="72" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1799,10 +1818,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="114" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1811,36 +1830,36 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="70" t="s">
+      <c r="I5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="116"/>
-      <c r="P5" s="117"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="127"/>
       <c r="Q5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="70" t="s">
+      <c r="R5" s="68" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="64" t="s">
@@ -1852,38 +1871,38 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
-      <c r="C6" s="100"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="85" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="116"/>
-      <c r="P6" s="117"/>
+      <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="146"/>
+      <c r="P6" s="127"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1917,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1908,37 +1927,37 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="116"/>
-      <c r="P7" s="117"/>
+      <c r="J7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="146"/>
+      <c r="P7" s="127"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="66" t="s">
+      <c r="S7" s="65" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="12" t="s">
@@ -1946,8 +1965,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="104" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -1956,70 +1975,70 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="92" t="s">
+      <c r="J8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="95"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="110"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="79"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="68" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="95"/>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="110"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2028,42 +2047,42 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="66" t="s">
+      <c r="G10" s="97"/>
+      <c r="H10" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="95"/>
+      <c r="J10" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="110"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="66" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -2075,26 +2094,26 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="95"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="110"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
@@ -2107,61 +2126,61 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="110"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="79"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="68" t="s">
+      <c r="G13" s="96"/>
+      <c r="H13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="95"/>
+      <c r="I13" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="110"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="66" t="s">
+      <c r="G14" s="97"/>
+      <c r="H14" s="65" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -2173,91 +2192,91 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="98"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="113"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="106"/>
-      <c r="C15" s="110" t="s">
+      <c r="B15" s="121"/>
+      <c r="C15" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="111"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="137"/>
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="159" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="160"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="130"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="106"/>
-      <c r="C17" s="113" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="167"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="168"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="133"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="106"/>
-      <c r="C18" s="108" t="s">
+      <c r="B18" s="121"/>
+      <c r="C18" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="112"/>
+      <c r="D18" s="137"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="169" t="s">
+      <c r="H18" s="79" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="8"/>
@@ -2265,7 +2284,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="166" t="s">
+      <c r="N18" s="78" t="s">
         <v>88</v>
       </c>
       <c r="O18" s="8"/>
@@ -2276,215 +2295,217 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="106"/>
-      <c r="C19" s="113" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="162" t="s">
+      <c r="H19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="164" t="s">
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="106"/>
-      <c r="C20" s="110" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="115"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="162" t="s">
+      <c r="H20" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="164" t="s">
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="107"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="162" t="s">
+      <c r="H21" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="164" t="s">
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="74"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="71"/>
     </row>
     <row r="22" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="5"/>
-      <c r="H22" s="164" t="s">
+      <c r="H22" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="164" t="s">
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="74"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="71"/>
     </row>
     <row r="23" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="5"/>
-      <c r="H23" s="162" t="s">
+      <c r="H23" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="164" t="s">
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="74"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="71"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="5"/>
-      <c r="H24" s="162" t="s">
+      <c r="H24" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="164" t="s">
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="171"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="81"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="5"/>
-      <c r="H25" s="162" t="s">
+      <c r="H25" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="171"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="81"/>
     </row>
     <row r="26" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="5"/>
-      <c r="H26" s="162" t="s">
+      <c r="H26" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="171"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="81"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="5"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="171"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="81"/>
     </row>
     <row r="28" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="5"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="172"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="82"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2557,10 +2578,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="104" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2569,31 +2590,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="86" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86" t="s">
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2617,16 +2638,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2683,8 +2704,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="78"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="104" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2693,10 +2714,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="84"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2734,22 +2755,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="111"/>
-      <c r="W4" s="115"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="126"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="95" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2776,8 +2797,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2790,8 +2811,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="111"/>
-      <c r="W5" s="115"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="126"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2800,8 +2821,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="104" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2810,7 +2831,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2835,8 +2856,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2849,19 +2870,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="115"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="126"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2886,8 +2907,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2900,14 +2921,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="127"/>
-      <c r="W7" s="114"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="124"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="114" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2916,7 +2937,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="95" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2931,31 +2952,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="95"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="110"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="81"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -2968,22 +2989,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="95"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="110"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="78"/>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="138" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2992,7 +3013,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -3005,29 +3026,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="95"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="110"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -3040,22 +3061,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="95"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="110"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="104" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -3064,7 +3085,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="95" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -3079,29 +3100,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="95"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="110"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="79"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -3114,24 +3135,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="95"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="110"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="142" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3140,7 +3161,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3153,29 +3174,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="95"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="110"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="120"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -3188,80 +3209,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="95"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="110"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="120"/>
-      <c r="C16" s="123"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="95"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="110"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="120"/>
-      <c r="C17" s="123"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="113"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="98"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="113"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="120"/>
-      <c r="C18" s="123"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3270,344 +3291,344 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="121"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="128" t="s">
+      <c r="G19" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="128" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="128" t="s">
+      <c r="J19" s="154"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="134"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="128" t="s">
+      <c r="M19" s="154"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="128" t="s">
+      <c r="P19" s="149"/>
+      <c r="Q19" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="129"/>
-      <c r="S19" s="128" t="s">
+      <c r="R19" s="149"/>
+      <c r="S19" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="129"/>
-      <c r="U19" s="134" t="s">
+      <c r="T19" s="149"/>
+      <c r="U19" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="129"/>
-      <c r="W19" s="137"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="157"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="109"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="138"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="158"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="106"/>
-      <c r="C21" s="110" t="s">
+      <c r="B21" s="121"/>
+      <c r="C21" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="111"/>
+      <c r="D21" s="136"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="138"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="158"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="106"/>
-      <c r="C22" s="110" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="115"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="138"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="158"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
-      <c r="C23" s="110" t="s">
+      <c r="B23" s="121"/>
+      <c r="C23" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="138"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="158"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="138"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="158"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="106"/>
-      <c r="C25" s="110" t="s">
+      <c r="B25" s="121"/>
+      <c r="C25" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="138"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="158"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="106"/>
-      <c r="C26" s="110" t="s">
+      <c r="B26" s="121"/>
+      <c r="C26" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="115"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="138"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="158"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="106"/>
-      <c r="C27" s="110" t="s">
+      <c r="B27" s="121"/>
+      <c r="C27" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="115"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="138"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="158"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="106"/>
-      <c r="C28" s="110" t="s">
+      <c r="B28" s="121"/>
+      <c r="C28" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="115"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="138"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="158"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="106"/>
-      <c r="C29" s="110" t="s">
+      <c r="B29" s="121"/>
+      <c r="C29" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="115"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="138"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="158"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="107"/>
-      <c r="C30" s="113" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="114"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="133"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="139"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -3672,10 +3693,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="141"/>
+      <c r="C2" s="161"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3683,37 +3704,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="86" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86" t="s">
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="88"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="105" t="s">
+      <c r="S2" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="149" t="s">
+      <c r="T2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="150"/>
+      <c r="U2" s="170"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3721,8 +3742,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3751,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="106"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3760,8 +3781,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3769,7 +3790,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="95" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3790,10 +3811,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="112"/>
+      <c r="O4" s="137"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="106"/>
+      <c r="S4" s="121"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3810,10 +3831,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="104" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3821,7 +3842,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3840,8 +3861,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="115"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3849,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="106"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3858,14 +3879,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="147"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="82"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3884,8 +3905,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="124"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="106"/>
+      <c r="S6" s="121"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3902,8 +3923,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="147"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="167"/>
+      <c r="C7" s="105" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3911,7 +3932,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="95" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3926,16 +3947,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="152"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="154"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="174"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="106"/>
+      <c r="S7" s="121"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3944,14 +3965,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="148"/>
-      <c r="C8" s="91"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="81"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3964,14 +3985,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="154"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="174"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="106"/>
+      <c r="S8" s="121"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -3980,10 +4001,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="104" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -3991,23 +4012,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="81"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="154"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="174"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="106"/>
+      <c r="S9" s="121"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -4016,28 +4037,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="82"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="82"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="154"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="174"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="106"/>
+      <c r="S10" s="121"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -4051,7 +4072,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="95" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4066,14 +4087,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="174"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="106"/>
+      <c r="S11" s="121"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -4087,7 +4108,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="82"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -4100,14 +4121,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="177"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="106"/>
+      <c r="S12" s="121"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -4133,7 +4154,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="107"/>
+      <c r="S13" s="122"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>

--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1BF7FF-4E5A-4FC1-901B-63F8438AC65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A3604-325B-41FE-89DD-ADD302D58568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="108">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +480,14 @@
   </si>
   <si>
     <t>타일이 tranlsation.y 되었을 시 레이 처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 기울이면 박스랑 충돌 이상함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 오는거 보고 고쳐놓기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1057,16 +1062,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1656,7 +1655,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1680,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1692,31 +1691,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="101" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="98" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101" t="s">
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="93"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1726,8 +1725,8 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="94"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1776,26 +1775,26 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="73" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="86" t="s">
+      <c r="M4" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="84" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="72" t="s">
@@ -1818,10 +1817,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="111" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1830,7 +1829,7 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="93" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="65" t="s">
@@ -1839,23 +1838,23 @@
       <c r="I5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="N5" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="146"/>
-      <c r="P5" s="127"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="124"/>
       <c r="Q5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1871,20 +1870,20 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="93"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="85" t="s">
-        <v>30</v>
+      <c r="I6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>20</v>
@@ -1892,17 +1891,17 @@
       <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="146"/>
-      <c r="P6" s="127"/>
+      <c r="N6" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="143"/>
+      <c r="P6" s="124"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1916,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="93"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1927,12 +1926,12 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="83" t="s">
-        <v>30</v>
+      <c r="I7" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>20</v>
@@ -1940,17 +1939,17 @@
       <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="146"/>
-      <c r="P7" s="127"/>
+      <c r="N7" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="143"/>
+      <c r="P7" s="124"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1965,8 +1964,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="101" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -1975,14 +1974,14 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="92" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="87" t="s">
-        <v>30</v>
+      <c r="I8" s="85" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>20</v>
@@ -1990,32 +1989,32 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="107" t="s">
+      <c r="L8" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="110"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="107"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="94"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -2024,21 +2023,21 @@
       <c r="K9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="107"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="101" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2047,39 +2046,39 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110"/>
+      <c r="J10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="107"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="93"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="92" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="66" t="s">
@@ -2094,26 +2093,26 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="110"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="107"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="93"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="96"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
@@ -2126,26 +2125,26 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="110"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="107"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="94"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="66" t="s">
         <v>10</v>
       </c>
@@ -2158,28 +2157,28 @@
       <c r="K13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="110"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="107"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="97"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="65" t="s">
         <v>9</v>
       </c>
@@ -2192,91 +2191,91 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="113"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="121"/>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="136"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="121"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="118"/>
+      <c r="C16" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="137"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="129" t="s">
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="130"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="127"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="121"/>
-      <c r="C17" s="123" t="s">
+      <c r="B17" s="118"/>
+      <c r="C17" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="133"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="130"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="121"/>
-      <c r="C18" s="134" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="137"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="78" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="8"/>
@@ -2284,7 +2283,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="77" t="s">
         <v>88</v>
       </c>
       <c r="O18" s="8"/>
@@ -2295,16 +2294,16 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="121"/>
-      <c r="C19" s="123" t="s">
+      <c r="B19" s="118"/>
+      <c r="C19" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="124"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I19" s="70"/>
@@ -2312,7 +2311,7 @@
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
       <c r="M19" s="71"/>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="75" t="s">
         <v>101</v>
       </c>
       <c r="O19" s="70"/>
@@ -2323,16 +2322,16 @@
       <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="121"/>
-      <c r="C20" s="125" t="s">
+      <c r="B20" s="118"/>
+      <c r="C20" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="73" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="70"/>
@@ -2340,29 +2339,29 @@
       <c r="K20" s="70"/>
       <c r="L20" s="70"/>
       <c r="M20" s="71"/>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="75" t="s">
         <v>93</v>
       </c>
       <c r="O20" s="70"/>
       <c r="P20" s="70"/>
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
-      <c r="S20" s="74" t="s">
+      <c r="S20" s="73" t="s">
         <v>105</v>
       </c>
       <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123" t="s">
+      <c r="B21" s="119"/>
+      <c r="C21" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="124"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="73" t="s">
         <v>90</v>
       </c>
       <c r="I21" s="70"/>
@@ -2370,7 +2369,7 @@
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
       <c r="M21" s="71"/>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="75" t="s">
         <v>89</v>
       </c>
       <c r="O21" s="70"/>
@@ -2382,7 +2381,7 @@
     </row>
     <row r="22" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="5"/>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="75" t="s">
         <v>94</v>
       </c>
       <c r="I22" s="70"/>
@@ -2390,7 +2389,7 @@
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
       <c r="M22" s="71"/>
-      <c r="N22" s="76" t="s">
+      <c r="N22" s="75" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="70"/>
@@ -2402,7 +2401,7 @@
     </row>
     <row r="23" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="5"/>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="73" t="s">
         <v>96</v>
       </c>
       <c r="I23" s="70"/>
@@ -2410,7 +2409,7 @@
       <c r="K23" s="70"/>
       <c r="L23" s="70"/>
       <c r="M23" s="71"/>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="75" t="s">
         <v>97</v>
       </c>
       <c r="O23" s="70"/>
@@ -2422,90 +2421,95 @@
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="5"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="76" t="s">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="81"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="80"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="5"/>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="81"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="80"/>
     </row>
     <row r="26" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="5"/>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="81"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="80"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="5"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="81"/>
+      <c r="H27" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="80"/>
     </row>
     <row r="28" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="5"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="82"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="81"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2578,10 +2582,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="101" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2590,31 +2594,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="101" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="98" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101" t="s">
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="100"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,16 +2642,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="93"/>
-      <c r="C3" s="106"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="103"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2704,8 +2708,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="101" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2714,10 +2718,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="99"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2755,22 +2759,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="136"/>
-      <c r="W4" s="126"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="123"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="93"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="92" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2797,8 +2801,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2811,8 +2815,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="136"/>
-      <c r="W5" s="126"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="123"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2821,8 +2825,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="93"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2831,7 +2835,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2856,8 +2860,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2870,19 +2874,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="136"/>
-      <c r="W6" s="126"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="123"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="94"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2907,8 +2911,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2921,14 +2925,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="147"/>
-      <c r="W7" s="124"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="121"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="111" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2937,7 +2941,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="92" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2952,31 +2956,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="110"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="107"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="93"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -2989,22 +2993,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="110"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="107"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="93"/>
-      <c r="C10" s="138" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="135" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3013,7 +3017,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="96"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -3026,29 +3030,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="110"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="107"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="93"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="96"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -3061,22 +3065,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="110"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="101" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -3085,7 +3089,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="92" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -3100,29 +3104,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="110"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="107"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="94"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -3135,24 +3139,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="110"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="107"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="139" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3161,7 +3165,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="96"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3174,29 +3178,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="110"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="107"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="140"/>
-      <c r="C15" s="143"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="96"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -3209,80 +3213,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="110"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="107"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="140"/>
-      <c r="C16" s="143"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="96"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="110"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="107"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="140"/>
-      <c r="C17" s="143"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="97"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="113"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="110"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="140"/>
-      <c r="C18" s="143"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3291,344 +3295,344 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="141"/>
-      <c r="C19" s="144"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="G19" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="149"/>
-      <c r="I19" s="148" t="s">
+      <c r="H19" s="146"/>
+      <c r="I19" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="154"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="148" t="s">
+      <c r="J19" s="151"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="154"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="148" t="s">
+      <c r="M19" s="151"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="148" t="s">
+      <c r="P19" s="146"/>
+      <c r="Q19" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="149"/>
-      <c r="S19" s="148" t="s">
+      <c r="R19" s="146"/>
+      <c r="S19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="149"/>
-      <c r="U19" s="154" t="s">
+      <c r="T19" s="146"/>
+      <c r="U19" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="149"/>
-      <c r="W19" s="157"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="154"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="158"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="155"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="121"/>
-      <c r="C21" s="125" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="136"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="158"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="155"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="121"/>
-      <c r="C22" s="125" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="158"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="155"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="121"/>
-      <c r="C23" s="125" t="s">
+      <c r="B23" s="118"/>
+      <c r="C23" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="158"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="155"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="121"/>
-      <c r="C24" s="125" t="s">
+      <c r="B24" s="118"/>
+      <c r="C24" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="158"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="155"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="121"/>
-      <c r="C25" s="125" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="158"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="155"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="121"/>
-      <c r="C26" s="125" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="158"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="155"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="121"/>
-      <c r="C27" s="125" t="s">
+      <c r="B27" s="118"/>
+      <c r="C27" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="126"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="158"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="155"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="121"/>
-      <c r="C28" s="125" t="s">
+      <c r="B28" s="118"/>
+      <c r="C28" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="126"/>
+      <c r="D28" s="123"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="158"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="155"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="121"/>
-      <c r="C29" s="125" t="s">
+      <c r="B29" s="118"/>
+      <c r="C29" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="126"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="158"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="155"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="122"/>
-      <c r="C30" s="123" t="s">
+      <c r="B30" s="119"/>
+      <c r="C30" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="124"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="152"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="159"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -3693,10 +3697,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="161"/>
+      <c r="C2" s="158"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3704,37 +3708,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="101" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="101" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="101" t="s">
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="100"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="120" t="s">
+      <c r="S2" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="169" t="s">
+      <c r="T2" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="170"/>
+      <c r="U2" s="167"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3742,8 +3746,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="121"/>
+      <c r="S3" s="118"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3781,8 +3785,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="92" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3811,10 +3815,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="134" t="s">
+      <c r="N4" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="137"/>
+      <c r="O4" s="134"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="121"/>
+      <c r="S4" s="118"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3831,10 +3835,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="101" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3842,7 +3846,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="96"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3861,8 +3865,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="126"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="121"/>
+      <c r="S5" s="118"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3879,14 +3883,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="167"/>
-      <c r="C6" s="106"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="97"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3905,8 +3909,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="121"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="121"/>
+      <c r="S6" s="118"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3923,8 +3927,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="167"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="164"/>
+      <c r="C7" s="102" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3932,7 +3936,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="92" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3947,16 +3951,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="171" t="s">
+      <c r="L7" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="172"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="174"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="171"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="121"/>
+      <c r="S7" s="118"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3965,14 +3969,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="168"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="96"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3985,14 +3989,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="174"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="121"/>
+      <c r="S8" s="118"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -4001,10 +4005,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="101" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4012,23 +4016,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="96"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="174"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="171"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="121"/>
+      <c r="S9" s="118"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -4037,28 +4041,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="97"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="97"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="174"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="171"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="121"/>
+      <c r="S10" s="118"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -4072,7 +4076,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="92" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4087,14 +4091,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="174"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="171"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="121"/>
+      <c r="S11" s="118"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -4108,7 +4112,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="97"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -4121,14 +4125,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="177"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="174"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="121"/>
+      <c r="S12" s="118"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="122"/>
+      <c r="S13" s="119"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>

--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A3604-325B-41FE-89DD-ADD302D58568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BD5DC-4C49-4CB8-99CE-F1E477633614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,19 +1062,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,12 +1176,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1170,142 +1221,67 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,6 +1310,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,7 +1667,7 @@
   <dimension ref="B1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1679,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="106" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1691,31 +1703,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="95" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="98" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="100"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="117"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1725,8 +1737,8 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1777,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="91"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1775,10 +1787,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="99"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="16" t="s">
         <v>20</v>
       </c>
@@ -1788,16 +1800,16 @@
       <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="72" t="s">
+      <c r="L4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="176" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1817,10 +1829,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="128" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1829,7 +1841,7 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="110" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="65" t="s">
@@ -1844,17 +1856,17 @@
       <c r="K5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="143"/>
-      <c r="P5" s="124"/>
+      <c r="L5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1870,15 +1882,15 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="90"/>
-      <c r="C6" s="112"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1894,14 +1906,14 @@
       <c r="L6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="143"/>
-      <c r="P6" s="124"/>
+      <c r="M6" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +1928,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="90"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1938,7 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
@@ -1942,14 +1954,14 @@
       <c r="L7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>20</v>
+      <c r="M7" s="82" t="s">
+        <v>21</v>
       </c>
       <c r="N7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="143"/>
-      <c r="P7" s="124"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="95"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1964,8 +1976,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="90"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="118" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -1974,70 +1986,70 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="104" t="s">
+      <c r="I8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="107"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="124"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="91"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="66" t="s">
+      <c r="G9" s="177"/>
+      <c r="H9" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="107"/>
+      <c r="I9" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="124"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="118" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2046,42 +2058,42 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="65" t="s">
+      <c r="G10" s="178"/>
+      <c r="H10" s="82" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="89" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="107"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="124"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="90"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="84" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -2093,31 +2105,31 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="108"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="107"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="124"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="90"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="93"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="64" t="s">
-        <v>30</v>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>20</v>
@@ -2125,26 +2137,26 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="108"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="107"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="124"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="91"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="93"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="66" t="s">
         <v>10</v>
       </c>
@@ -2157,28 +2169,28 @@
       <c r="K13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="107"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="94"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="65" t="s">
         <v>9</v>
       </c>
@@ -2191,84 +2203,84 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="127"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="118"/>
-      <c r="C15" s="122" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="126" t="s">
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="127"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="98"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="118"/>
-      <c r="C17" s="120" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="121"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="130"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="118"/>
-      <c r="C18" s="131" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="134"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2294,11 +2306,11 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="118"/>
-      <c r="C19" s="120" t="s">
+      <c r="B19" s="135"/>
+      <c r="C19" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="121"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2322,11 +2334,11 @@
       <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="118"/>
-      <c r="C20" s="122" t="s">
+      <c r="B20" s="135"/>
+      <c r="C20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
@@ -2352,11 +2364,11 @@
       <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120" t="s">
+      <c r="B21" s="136"/>
+      <c r="C21" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
@@ -2515,17 +2527,6 @@
     <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O5:P7"/>
-    <mergeCell ref="G16:M17"/>
-    <mergeCell ref="N16:T17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G14"/>
@@ -2542,6 +2543,17 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="N16:T17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2582,10 +2594,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="118" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2594,31 +2606,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="95" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="100"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="117"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,16 +2654,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90"/>
-      <c r="C3" s="103"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2708,8 +2720,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="90"/>
-      <c r="C4" s="101" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="118" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2718,10 +2730,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="96"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2759,22 +2771,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="123"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="93"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="90"/>
-      <c r="C5" s="103"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="109" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2801,8 +2813,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2827,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="133"/>
-      <c r="W5" s="123"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="93"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2825,8 +2837,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="90"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2835,7 +2847,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2860,8 +2872,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2874,19 +2886,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="133"/>
-      <c r="W6" s="123"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="93"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="91"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2911,8 +2923,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2925,14 +2937,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="144"/>
-      <c r="W7" s="121"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="91"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="128" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2941,7 +2953,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="109" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2956,31 +2968,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="124"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="90"/>
-      <c r="C9" s="112"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="93"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -2993,22 +3005,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="108"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="107"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="124"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="90"/>
-      <c r="C10" s="135" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="157" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3017,7 +3029,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="93"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -3030,29 +3042,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="107"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="124"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="90"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -3065,22 +3077,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="107"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="124"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="101" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="118" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -3089,7 +3101,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="109" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -3104,29 +3116,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="124"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="91"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="93"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -3139,24 +3151,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="107"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="124"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="154" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3165,7 +3177,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="93"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3178,29 +3190,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="107"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="124"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="137"/>
-      <c r="C15" s="140"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -3213,80 +3225,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="107"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="124"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="137"/>
-      <c r="C16" s="140"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="93"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="107"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="124"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="137"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="94"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="110"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="127"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="137"/>
-      <c r="C18" s="140"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3295,367 +3307,353 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="138"/>
-      <c r="C19" s="141"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="146"/>
-      <c r="I19" s="145" t="s">
+      <c r="H19" s="138"/>
+      <c r="I19" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="151"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="145" t="s">
+      <c r="J19" s="143"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="151"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="145" t="s">
+      <c r="M19" s="143"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="145" t="s">
+      <c r="P19" s="138"/>
+      <c r="Q19" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="146"/>
-      <c r="S19" s="145" t="s">
+      <c r="R19" s="138"/>
+      <c r="S19" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="146"/>
-      <c r="U19" s="151" t="s">
+      <c r="T19" s="138"/>
+      <c r="U19" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="146"/>
-      <c r="W19" s="154"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="146"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="132"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="147"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="152"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="155"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="147"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="118"/>
-      <c r="C21" s="122" t="s">
+      <c r="B21" s="135"/>
+      <c r="C21" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="147"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="155"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="147"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="122" t="s">
+      <c r="B22" s="135"/>
+      <c r="C22" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="147"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="155"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="147"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="118"/>
-      <c r="C23" s="122" t="s">
+      <c r="B23" s="135"/>
+      <c r="C23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="147"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="155"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="144"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="147"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="118"/>
-      <c r="C24" s="122" t="s">
+      <c r="B24" s="135"/>
+      <c r="C24" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="147"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="155"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="147"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="118"/>
-      <c r="C25" s="122" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="123"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="155"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="147"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="118"/>
-      <c r="C26" s="122" t="s">
+      <c r="B26" s="135"/>
+      <c r="C26" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="155"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="147"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="118"/>
-      <c r="C27" s="122" t="s">
+      <c r="B27" s="135"/>
+      <c r="C27" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="155"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="147"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="118"/>
-      <c r="C28" s="122" t="s">
+      <c r="B28" s="135"/>
+      <c r="C28" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="147"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="155"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="147"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="118"/>
-      <c r="C29" s="122" t="s">
+      <c r="B29" s="135"/>
+      <c r="C29" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="155"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="144"/>
+      <c r="V29" s="140"/>
+      <c r="W29" s="147"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="119"/>
-      <c r="C30" s="120" t="s">
+      <c r="B30" s="136"/>
+      <c r="C30" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="121"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="150"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="156"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="S19:T30"/>
-    <mergeCell ref="U19:V30"/>
-    <mergeCell ref="W19:W30"/>
-    <mergeCell ref="G19:H30"/>
-    <mergeCell ref="I19:K30"/>
-    <mergeCell ref="L19:N30"/>
-    <mergeCell ref="O19:P30"/>
-    <mergeCell ref="Q19:R30"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -3672,12 +3670,26 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3697,10 +3709,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="168"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3708,37 +3720,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="98" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="100"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="166" t="s">
+      <c r="T2" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="167"/>
+      <c r="U2" s="159"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3746,8 +3758,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3788,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="118"/>
+      <c r="S3" s="135"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3785,8 +3797,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="109" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3815,10 +3827,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="134"/>
+      <c r="O4" s="105"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="118"/>
+      <c r="S4" s="135"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3835,10 +3847,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="118" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3846,7 +3858,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="93"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3865,8 +3877,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="118"/>
+      <c r="S5" s="135"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3883,14 +3895,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="164"/>
-      <c r="C6" s="103"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="94"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3909,8 +3921,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="121"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3918,7 +3930,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="118"/>
+      <c r="S6" s="135"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3927,8 +3939,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="164"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="119" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3936,7 +3948,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="109" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3951,16 +3963,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="168" t="s">
+      <c r="L7" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="171"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="163"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="118"/>
+      <c r="S7" s="135"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3969,14 +3981,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="165"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="93"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3989,14 +4001,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="171"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="163"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="118"/>
+      <c r="S8" s="135"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -4005,10 +4017,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="118" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4016,23 +4028,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="93"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="171"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="163"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="118"/>
+      <c r="S9" s="135"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -4041,28 +4053,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="94"/>
-      <c r="C10" s="103"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="94"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="171"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="163"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="118"/>
+      <c r="S10" s="135"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -4076,7 +4088,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="109" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4091,14 +4103,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="171"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="163"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="118"/>
+      <c r="S11" s="135"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -4112,7 +4124,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -4125,14 +4137,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="174"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="118"/>
+      <c r="S12" s="135"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -4158,7 +4170,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="119"/>
+      <c r="S13" s="136"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -4168,6 +4180,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -4180,12 +4198,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4202,6 +4214,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -4347,12 +4365,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
@@ -4362,6 +4374,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4377,20 +4405,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737A7415-A5C2-4E8A-82EA-7AD0F5EEFABD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BD5DC-4C49-4CB8-99CE-F1E477633614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="5" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="118">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,11 +489,51 @@
     <t>맵 오는거 보고 고쳐놓기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>문OBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB 클래스 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대화 버튼 잠그기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도 픽스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울맵 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 color 지우고 용용이로 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실린더 render 지웠다 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 render 지웠다 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pobject들 matS, matT, matR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1080,52 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,6 +1132,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,6 +1221,81 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,31 +1332,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,42 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,14 +1699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:X30"/>
+  <dimension ref="B1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1691,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1703,31 +1742,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="115" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="112" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115" t="s">
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="107"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1737,8 +1776,8 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +1816,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="108"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1787,10 +1826,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="116"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="16" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1848,7 @@
       <c r="N4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="176" t="s">
+      <c r="O4" s="90" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="17" t="s">
@@ -1829,10 +1868,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="115" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1841,7 +1880,7 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="97" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="65" t="s">
@@ -1865,8 +1904,8 @@
       <c r="N5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="129"/>
       <c r="Q5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1882,15 +1921,15 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="107"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="110"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1912,8 +1951,8 @@
       <c r="N6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="94"/>
-      <c r="P6" s="95"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1967,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1977,7 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
@@ -1960,8 +1999,8 @@
       <c r="N7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="129"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1976,8 +2015,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="107"/>
-      <c r="C8" s="118" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -1986,7 +2025,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="86" t="s">
@@ -2001,28 +2040,28 @@
       <c r="K8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="121" t="s">
+      <c r="L8" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="124"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="111"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="108"/>
-      <c r="C9" s="119"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="177"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="86" t="s">
         <v>1</v>
       </c>
@@ -2035,21 +2074,21 @@
       <c r="K9" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="124"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="111"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="105" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2058,7 +2097,7 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="178"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="82" t="s">
         <v>2</v>
       </c>
@@ -2071,26 +2110,26 @@
       <c r="K10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="124"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="111"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="107"/>
-      <c r="C11" s="119"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="94" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="84" t="s">
@@ -2105,26 +2144,26 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="124"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="111"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="107"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
@@ -2137,26 +2176,26 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="124"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="111"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="110"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="66" t="s">
         <v>10</v>
       </c>
@@ -2169,28 +2208,28 @@
       <c r="K13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="124"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="111"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="103"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="65" t="s">
         <v>9</v>
       </c>
@@ -2203,84 +2242,84 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="127"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="114"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="135"/>
-      <c r="C15" s="92" t="s">
+      <c r="B15" s="122"/>
+      <c r="C15" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="104"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="135"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="122"/>
+      <c r="C16" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="97" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="98"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="132"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="135"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="122"/>
+      <c r="C17" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="135"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="135"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="122"/>
+      <c r="C18" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2306,11 +2345,11 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="135"/>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2334,11 +2373,11 @@
       <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="135"/>
-      <c r="C20" s="92" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
@@ -2364,11 +2403,11 @@
       <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="136"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
@@ -2524,9 +2563,63 @@
       <c r="T28" s="81"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="N16:T17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G14"/>
@@ -2543,17 +2636,6 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O5:P7"/>
-    <mergeCell ref="G16:M17"/>
-    <mergeCell ref="N16:T17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2562,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2594,10 +2676,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2606,31 +2688,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="115" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="112" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115" t="s">
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2654,16 +2736,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="107"/>
-      <c r="C3" s="120"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2720,8 +2802,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="107"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="105" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2730,10 +2812,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="113"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2771,22 +2853,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="93"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="127"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
-      <c r="C5" s="120"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2813,8 +2895,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2827,8 +2909,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="104"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="127"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2837,8 +2919,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="107"/>
-      <c r="C6" s="118" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2847,7 +2929,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="110"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2872,8 +2954,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2886,19 +2968,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="93"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="127"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="108"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -2923,8 +3005,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2937,14 +3019,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="150"/>
-      <c r="W7" s="91"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="125"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="115" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -2953,7 +3035,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -2968,31 +3050,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="125" t="s">
+      <c r="L8" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="124"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="111"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="107"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="110"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -3005,22 +3087,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="125"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="124"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="111"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="107"/>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="140" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3029,7 +3111,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="110"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -3042,29 +3124,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="124"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="111"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="107"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -3077,22 +3159,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="124"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="111"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
-      <c r="C12" s="118" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -3101,7 +3183,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="94" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -3116,29 +3198,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="124"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="111"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="110"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -3151,24 +3233,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="124"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="111"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="144" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3177,7 +3259,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="110"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3190,29 +3272,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="124"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="111"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="152"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="110"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -3225,80 +3307,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="124"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="111"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="152"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="110"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="124"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="111"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="152"/>
-      <c r="C17" s="155"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="111"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="127"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="114"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="152"/>
-      <c r="C18" s="155"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3307,353 +3389,367 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="153"/>
-      <c r="C19" s="156"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="137" t="s">
+      <c r="H19" s="150"/>
+      <c r="I19" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="143"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="137" t="s">
+      <c r="J19" s="155"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="143"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="137" t="s">
+      <c r="M19" s="155"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="137" t="s">
+      <c r="P19" s="150"/>
+      <c r="Q19" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="138"/>
-      <c r="S19" s="137" t="s">
+      <c r="R19" s="150"/>
+      <c r="S19" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="138"/>
-      <c r="U19" s="143" t="s">
+      <c r="T19" s="150"/>
+      <c r="U19" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="138"/>
-      <c r="W19" s="146"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="158"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="103"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="140"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="140"/>
-      <c r="W20" s="147"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="159"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="135"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="104"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="140"/>
-      <c r="W21" s="147"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="159"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="135"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="140"/>
-      <c r="S22" s="139"/>
-      <c r="T22" s="140"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="140"/>
-      <c r="W22" s="147"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="159"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="135"/>
-      <c r="C23" s="92" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="140"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="140"/>
-      <c r="W23" s="147"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="159"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="135"/>
-      <c r="C24" s="92" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="147"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="159"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="135"/>
-      <c r="C25" s="92" t="s">
+      <c r="B25" s="122"/>
+      <c r="C25" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="93"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="147"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="159"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="135"/>
-      <c r="C26" s="92" t="s">
+      <c r="B26" s="122"/>
+      <c r="C26" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="93"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="147"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="159"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="135"/>
-      <c r="C27" s="92" t="s">
+      <c r="B27" s="122"/>
+      <c r="C27" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="139"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="147"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="159"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="135"/>
-      <c r="C28" s="92" t="s">
+      <c r="B28" s="122"/>
+      <c r="C28" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="147"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="159"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="135"/>
-      <c r="C29" s="92" t="s">
+      <c r="B29" s="122"/>
+      <c r="C29" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="147"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="159"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="136"/>
-      <c r="C30" s="90" t="s">
+      <c r="B30" s="123"/>
+      <c r="C30" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="148"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -3670,26 +3766,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="S19:T30"/>
-    <mergeCell ref="U19:V30"/>
-    <mergeCell ref="W19:W30"/>
-    <mergeCell ref="G19:H30"/>
-    <mergeCell ref="I19:K30"/>
-    <mergeCell ref="L19:N30"/>
-    <mergeCell ref="O19:P30"/>
-    <mergeCell ref="Q19:R30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3698,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,10 +3791,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="168"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3720,37 +3802,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="115" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="115" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="115" t="s">
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="117"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="134" t="s">
+      <c r="S2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="158" t="s">
+      <c r="T2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="159"/>
+      <c r="U2" s="171"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3758,8 +3840,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3788,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="135"/>
+      <c r="S3" s="122"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3797,8 +3879,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +3888,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3827,10 +3909,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="105"/>
+      <c r="O4" s="139"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3838,7 +3920,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="135"/>
+      <c r="S4" s="122"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3847,10 +3929,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="105" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3858,7 +3940,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="110"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3877,8 +3959,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="92"/>
-      <c r="O5" s="93"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3886,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="135"/>
+      <c r="S5" s="122"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3895,14 +3977,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="174"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="111"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3921,8 +4003,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="125"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -3930,7 +4012,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="135"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -3939,8 +4021,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="174"/>
-      <c r="C7" s="119" t="s">
+      <c r="B7" s="168"/>
+      <c r="C7" s="106" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -3948,7 +4030,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -3963,16 +4045,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="160" t="s">
+      <c r="L7" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="161"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="163"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="175"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="135"/>
+      <c r="S7" s="122"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3981,14 +4063,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="175"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="110"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4001,14 +4083,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="163"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="135"/>
+      <c r="S8" s="122"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -4017,10 +4099,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="105" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4028,23 +4110,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="163"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="175"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="135"/>
+      <c r="S9" s="122"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -4053,28 +4135,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="111"/>
-      <c r="C10" s="120"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="163"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="175"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="135"/>
+      <c r="S10" s="122"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4170,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="94" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4103,14 +4185,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="163"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="175"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="135"/>
+      <c r="S11" s="122"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4206,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="111"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -4137,14 +4219,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="166"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="178"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="135"/>
+      <c r="S12" s="122"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -4170,7 +4252,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="136"/>
+      <c r="S13" s="123"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -4180,12 +4262,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -4198,6 +4274,12 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4205,21 +4287,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -4365,10 +4432,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4390,19 +4482,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DxTeamProject/CollisionTestExcelSheet.xlsx
+++ b/DxTeamProject/CollisionTestExcelSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DxTeamProject\DxTeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandy\Desktop\DirectXProject\DxTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F8D6A-914C-4098-A872-2B3FB2B08B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="5" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="119">
   <si>
     <t>맵 타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,11 +530,15 @@
     <t>Pobject들 matS, matT, matR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>속도가 있는 오브젝트와 캐릭터 충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1122,6 +1127,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,142 +1274,67 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,6 +1363,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1699,14 +1704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1735,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="59" t="s">
@@ -1742,31 +1747,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="102" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="99" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="104"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="92"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
@@ -1776,8 +1781,8 @@
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1821,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
@@ -1826,10 +1831,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="16" t="s">
         <v>20</v>
       </c>
@@ -1868,10 +1873,10 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -1880,7 +1885,7 @@
       <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="113" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="65" t="s">
@@ -1904,8 +1909,8 @@
       <c r="N5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="128"/>
-      <c r="P5" s="129"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
       <c r="Q5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1921,15 +1926,15 @@
       <c r="X5" s="43"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92"/>
-      <c r="C6" s="116"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1951,8 +1956,8 @@
       <c r="N6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="129"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
       <c r="Q6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1967,7 +1972,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="92"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +1982,7 @@
       <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="98"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="64" t="s">
         <v>13</v>
       </c>
@@ -1999,8 +2004,8 @@
       <c r="N7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="128"/>
-      <c r="P7" s="129"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
       <c r="Q7" s="9" t="s">
         <v>20</v>
       </c>
@@ -2015,8 +2020,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="92"/>
-      <c r="C8" s="105" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -2025,7 +2030,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="110" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="86" t="s">
@@ -2040,28 +2045,28 @@
       <c r="K8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="111"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="127"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="93"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="95"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="86" t="s">
         <v>1</v>
       </c>
@@ -2074,21 +2079,21 @@
       <c r="K9" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="111"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="127"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="121" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2097,7 +2102,7 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="96"/>
+      <c r="G10" s="112"/>
       <c r="H10" s="82" t="s">
         <v>2</v>
       </c>
@@ -2110,26 +2115,26 @@
       <c r="K10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="111"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="127"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="110" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="84" t="s">
@@ -2144,26 +2149,26 @@
       <c r="K11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="111"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="127"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="92"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="97"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="64" t="s">
         <v>70</v>
       </c>
@@ -2176,26 +2181,26 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="111"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="127"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="93"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="97"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="66" t="s">
         <v>10</v>
       </c>
@@ -2208,28 +2213,28 @@
       <c r="K13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="111"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="127"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="98"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="65" t="s">
         <v>9</v>
       </c>
@@ -2242,84 +2247,84 @@
       <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="114"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="130"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="122"/>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="138"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="122"/>
-      <c r="C16" s="136" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="139"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="130" t="s">
+      <c r="G16" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="131" t="s">
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="132"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="99"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="122"/>
-      <c r="C17" s="124" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="135"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="102"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="122"/>
-      <c r="C18" s="136" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="139"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2345,11 +2350,11 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="122"/>
-      <c r="C19" s="124" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2373,11 +2378,11 @@
       <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="122"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="138"/>
+      <c r="C20" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
@@ -2403,11 +2408,11 @@
       <c r="T20" s="71"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
@@ -2587,39 +2592,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H33" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H34" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H35" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="O5:P7"/>
-    <mergeCell ref="G16:M17"/>
-    <mergeCell ref="N16:T17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G14"/>
@@ -2636,6 +2633,17 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="O5:P7"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="N16:T17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2644,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2676,10 +2684,10 @@
   <sheetData>
     <row r="1" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="121" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2688,31 +2696,31 @@
       <c r="E2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="102" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="99" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="102" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2736,16 +2744,16 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="92"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2802,8 +2810,8 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="92"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="121" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -2812,10 +2820,10 @@
       <c r="E4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2853,22 +2861,22 @@
       <c r="U4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="138"/>
-      <c r="W4" s="127"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="94"/>
       <c r="AB4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="110" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2895,8 +2903,8 @@
       <c r="O5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
       <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2909,8 +2917,8 @@
       <c r="U5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="138"/>
-      <c r="W5" s="127"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="94"/>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2919,8 +2927,8 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92"/>
-      <c r="C6" s="105" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="121" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2929,7 +2937,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2954,8 +2962,8 @@
       <c r="O6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
       <c r="R6" s="9" t="s">
         <v>20</v>
       </c>
@@ -2968,19 +2976,19 @@
       <c r="U6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="138"/>
-      <c r="W6" s="127"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="94"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="93"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="98"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="27" t="s">
         <v>13</v>
       </c>
@@ -3005,8 +3013,8 @@
       <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
@@ -3019,14 +3027,14 @@
       <c r="U7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="148"/>
-      <c r="W7" s="125"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="92"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="131" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -3035,7 +3043,7 @@
       <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="110" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="31" t="s">
@@ -3050,31 +3058,31 @@
       <c r="K8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="111"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="127"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="92"/>
-      <c r="C9" s="116"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="97"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="29" t="s">
         <v>5</v>
       </c>
@@ -3087,22 +3095,22 @@
       <c r="K9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="111"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="127"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="92"/>
-      <c r="C10" s="140" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="160" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3111,7 +3119,7 @@
       <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="97"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="52" t="s">
         <v>1</v>
       </c>
@@ -3124,29 +3132,29 @@
       <c r="K10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="111"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="127"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="97"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="50" t="s">
         <v>2</v>
       </c>
@@ -3159,22 +3167,22 @@
       <c r="K11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="111"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="127"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="105" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="121" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -3183,7 +3191,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="110" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -3198,29 +3206,29 @@
       <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="111"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="127"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="93"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="97"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="28" t="s">
         <v>70</v>
       </c>
@@ -3233,24 +3241,24 @@
       <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="111"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="127"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="157" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3259,7 +3267,7 @@
       <c r="E14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="97"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3272,29 +3280,29 @@
       <c r="K14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="111"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="127"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="142"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="97"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
@@ -3307,80 +3315,80 @@
       <c r="K15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="111"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="127"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="142"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="97"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="111"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="127"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="98"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="114"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="130"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="142"/>
-      <c r="C18" s="145"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3389,367 +3397,353 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="143"/>
-      <c r="C19" s="146"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="149" t="s">
+      <c r="G19" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="150"/>
-      <c r="I19" s="149" t="s">
+      <c r="H19" s="141"/>
+      <c r="I19" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="155"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="149" t="s">
+      <c r="J19" s="146"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="155"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="149" t="s">
+      <c r="M19" s="146"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="149" t="s">
+      <c r="P19" s="141"/>
+      <c r="Q19" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="150"/>
-      <c r="S19" s="149" t="s">
+      <c r="R19" s="141"/>
+      <c r="S19" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="150"/>
-      <c r="U19" s="155" t="s">
+      <c r="T19" s="141"/>
+      <c r="U19" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="150"/>
-      <c r="W19" s="158"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="149"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="152"/>
-      <c r="W20" s="159"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="150"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="122"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="138"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="152"/>
-      <c r="W21" s="159"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="150"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="138"/>
+      <c r="C22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="159"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="150"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="122"/>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="138"/>
+      <c r="C23" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="152"/>
-      <c r="W23" s="159"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="150"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="122"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="138"/>
+      <c r="C24" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="159"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="150"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="122"/>
-      <c r="C25" s="126" t="s">
+      <c r="B25" s="138"/>
+      <c r="C25" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="159"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="150"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="122"/>
-      <c r="C26" s="126" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="127"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="159"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="142"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="150"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="122"/>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="127"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="159"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="150"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="122"/>
-      <c r="C28" s="126" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="127"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="159"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="142"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="150"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="122"/>
-      <c r="C29" s="126" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="152"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="159"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="143"/>
+      <c r="S29" s="142"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="143"/>
+      <c r="W29" s="150"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="123"/>
-      <c r="C30" s="124" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="125"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="153"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="160"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="S19:T30"/>
-    <mergeCell ref="U19:V30"/>
-    <mergeCell ref="W19:W30"/>
-    <mergeCell ref="G19:H30"/>
-    <mergeCell ref="I19:K30"/>
-    <mergeCell ref="L19:N30"/>
-    <mergeCell ref="O19:P30"/>
-    <mergeCell ref="Q19:R30"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="P5:Q7"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="L8:W17"/>
-    <mergeCell ref="V4:W7"/>
-    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C12:C13"/>
@@ -3766,12 +3760,26 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="P5:Q7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="L8:W17"/>
+    <mergeCell ref="V4:W7"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="S19:T30"/>
+    <mergeCell ref="U19:V30"/>
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="G19:H30"/>
+    <mergeCell ref="I19:K30"/>
+    <mergeCell ref="L19:N30"/>
+    <mergeCell ref="O19:P30"/>
+    <mergeCell ref="Q19:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3780,7 +3788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,10 +3799,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="162"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3802,37 +3810,37 @@
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="102" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="102" t="s">
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="104"/>
+      <c r="Q2" s="120"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="121" t="s">
+      <c r="S2" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="170" t="s">
+      <c r="T2" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="171"/>
+      <c r="U2" s="162"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3840,8 +3848,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="122"/>
+      <c r="S3" s="138"/>
       <c r="T3" s="18" t="s">
         <v>31</v>
       </c>
@@ -3879,8 +3887,8 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="110" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -3909,10 +3917,10 @@
       <c r="M4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="136" t="s">
+      <c r="N4" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="139"/>
+      <c r="O4" s="106"/>
       <c r="P4" s="16" t="s">
         <v>20</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="122"/>
+      <c r="S4" s="138"/>
       <c r="T4" s="18" t="s">
         <v>32</v>
       </c>
@@ -3929,10 +3937,10 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3940,7 +3948,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="97"/>
+      <c r="G5" s="113"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3959,8 +3967,8 @@
       <c r="M5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
       <c r="P5" s="9" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>20</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="122"/>
+      <c r="S5" s="138"/>
       <c r="T5" s="18" t="s">
         <v>33</v>
       </c>
@@ -3977,14 +3985,14 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="168"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="98"/>
+      <c r="G6" s="114"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -4003,8 +4011,8 @@
       <c r="M6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="125"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="122"/>
+      <c r="S6" s="138"/>
       <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
@@ -4021,8 +4029,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="168"/>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="177"/>
+      <c r="C7" s="122" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -4030,7 +4038,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="110" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -4045,16 +4053,16 @@
       <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="172" t="s">
+      <c r="L7" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="173"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="175"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="166"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="122"/>
+      <c r="S7" s="138"/>
       <c r="T7" s="18" t="s">
         <v>35</v>
       </c>
@@ -4063,14 +4071,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="169"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="97"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4083,14 +4091,14 @@
       <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="175"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="166"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="122"/>
+      <c r="S8" s="138"/>
       <c r="T8" s="18" t="s">
         <v>36</v>
       </c>
@@ -4099,10 +4107,10 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="121" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4110,23 +4118,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="97"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="175"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="166"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="122"/>
+      <c r="S9" s="138"/>
       <c r="T9" s="18" t="s">
         <v>37</v>
       </c>
@@ -4135,28 +4143,28 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="98"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="98"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="124"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="175"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="166"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="122"/>
+      <c r="S10" s="138"/>
       <c r="T10" s="18" t="s">
         <v>38</v>
       </c>
@@ -4170,7 +4178,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="110" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4185,14 +4193,14 @@
       <c r="K11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="175"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="166"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="122"/>
+      <c r="S11" s="138"/>
       <c r="T11" s="18" t="s">
         <v>39</v>
       </c>
@@ -4206,7 +4214,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="98"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
@@ -4219,14 +4227,14 @@
       <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="178"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="169"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="122"/>
+      <c r="S12" s="138"/>
       <c r="T12" s="18" t="s">
         <v>40</v>
       </c>
@@ -4252,7 +4260,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="123"/>
+      <c r="S13" s="139"/>
       <c r="T13" s="21" t="s">
         <v>41</v>
       </c>
@@ -4262,6 +4270,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="L7:Q12"/>
@@ -4274,12 +4288,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="S2:S13"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4287,6 +4295,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100726C9BBEEE2BC340B104565FFD3DB53B" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="b2781ea0fb4809296f1846d01ac3e003">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c78a5808-f422-4401-bcb3-e6dbc7bb542e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f892cfa3a1c4d4265613cf3a4425867c" ns3:_="">
     <xsd:import namespace="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
@@ -4432,35 +4455,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4482,9 +4480,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DE8243-E6A2-453C-B5DB-F0ED40FF58D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C1C97-3863-4420-963D-1D42187488B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c78a5808-f422-4401-bcb3-e6dbc7bb542e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>